--- a/teaching/traditional_assets/database/data/uganda/uganda_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/uganda/uganda_banks_regional.xlsx
@@ -590,6 +590,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.169</v>
+      </c>
+      <c r="E2">
+        <v>0.118</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -597,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.06247803880359317</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05197036864117068</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.7</v>
+        <v>19.9</v>
       </c>
       <c r="L2">
-        <v>0.203601108033241</v>
+        <v>0.2493734335839599</v>
       </c>
       <c r="M2">
-        <v>13.6</v>
+        <v>6.7</v>
       </c>
       <c r="N2">
-        <v>0.1039755351681957</v>
+        <v>0.05230288836846214</v>
       </c>
       <c r="O2">
-        <v>0.9251700680272109</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="P2">
-        <v>13.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q2">
-        <v>0.1039755351681957</v>
+        <v>0.05230288836846214</v>
       </c>
       <c r="R2">
-        <v>0.9251700680272109</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>114.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="V2">
-        <v>0.8769113149847094</v>
+        <v>0.7369242779078845</v>
       </c>
       <c r="W2">
-        <v>0.1032303370786517</v>
+        <v>0.1417378917378917</v>
       </c>
       <c r="X2">
-        <v>0.09306477878552473</v>
+        <v>0.08820899154041749</v>
       </c>
       <c r="Y2">
-        <v>0.01016555829312694</v>
+        <v>0.05352890019747424</v>
       </c>
       <c r="Z2">
-        <v>0.4832811885241441</v>
+        <v>0.5934188510875626</v>
       </c>
       <c r="AA2">
-        <v>0.02511630152494287</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07887463937702532</v>
+        <v>0.07523019489585669</v>
       </c>
       <c r="AC2">
-        <v>-0.05375833785208245</v>
+        <v>-0.07523019489585669</v>
       </c>
       <c r="AD2">
-        <v>86.3</v>
+        <v>82.3</v>
       </c>
       <c r="AE2">
-        <v>6.195427991902867</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>92.49542799190286</v>
+        <v>82.3</v>
       </c>
       <c r="AG2">
-        <v>-22.20457200809714</v>
+        <v>-12.10000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.4142289379756442</v>
+        <v>0.3911596958174905</v>
       </c>
       <c r="AI2">
-        <v>0.3833285560429546</v>
+        <v>0.3474039679189532</v>
       </c>
       <c r="AJ2">
-        <v>-0.2044705971392531</v>
+        <v>-0.1043103448275863</v>
       </c>
       <c r="AK2">
-        <v>-0.1753978983310311</v>
+        <v>-0.08491228070175444</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>15.00869565217391</v>
-      </c>
-      <c r="AP2">
-        <v>-3.861664697060373</v>
       </c>
     </row>
     <row r="3">
@@ -712,6 +712,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.169</v>
+      </c>
+      <c r="E3">
+        <v>0.118</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -719,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06247803880359317</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05197036864117068</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.7</v>
+        <v>19.9</v>
       </c>
       <c r="L3">
-        <v>0.203601108033241</v>
+        <v>0.2493734335839599</v>
       </c>
       <c r="M3">
-        <v>13.6</v>
+        <v>6.7</v>
       </c>
       <c r="N3">
-        <v>0.1039755351681957</v>
+        <v>0.05230288836846214</v>
       </c>
       <c r="O3">
-        <v>0.9251700680272109</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="P3">
-        <v>13.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q3">
-        <v>0.1039755351681957</v>
+        <v>0.05230288836846214</v>
       </c>
       <c r="R3">
-        <v>0.9251700680272109</v>
+        <v>0.3366834170854272</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>114.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="V3">
-        <v>0.8769113149847094</v>
+        <v>0.7369242779078845</v>
       </c>
       <c r="W3">
-        <v>0.1032303370786517</v>
+        <v>0.1417378917378917</v>
       </c>
       <c r="X3">
-        <v>0.09306477878552473</v>
+        <v>0.08820899154041749</v>
       </c>
       <c r="Y3">
-        <v>0.01016555829312694</v>
+        <v>0.05352890019747424</v>
       </c>
       <c r="Z3">
-        <v>0.4832811885241441</v>
+        <v>0.5934188510875626</v>
       </c>
       <c r="AA3">
-        <v>0.02511630152494287</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07887463937702532</v>
+        <v>0.07523019489585669</v>
       </c>
       <c r="AC3">
-        <v>-0.05375833785208245</v>
+        <v>-0.07523019489585669</v>
       </c>
       <c r="AD3">
-        <v>86.3</v>
+        <v>82.3</v>
       </c>
       <c r="AE3">
-        <v>6.195427991902867</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>92.49542799190286</v>
+        <v>82.3</v>
       </c>
       <c r="AG3">
-        <v>-22.20457200809714</v>
+        <v>-12.10000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.4142289379756442</v>
+        <v>0.3911596958174905</v>
       </c>
       <c r="AI3">
-        <v>0.3833285560429546</v>
+        <v>0.3474039679189532</v>
       </c>
       <c r="AJ3">
-        <v>-0.2044705971392531</v>
+        <v>-0.1043103448275863</v>
       </c>
       <c r="AK3">
-        <v>-0.1753978983310311</v>
+        <v>-0.08491228070175444</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>15.00869565217391</v>
-      </c>
-      <c r="AP3">
-        <v>-3.861664697060373</v>
       </c>
     </row>
   </sheetData>
